--- a/src/test/resources/organisations.xlsx
+++ b/src/test/resources/organisations.xlsx
@@ -5178,9 +5178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5194,7 +5194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5215,9 +5215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5231,7 +5231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5252,9 +5252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5268,7 +5268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="380880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5289,9 +5289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5305,7 +5305,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="571320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5326,9 +5326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5342,7 +5342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="761760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5363,9 +5363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5379,7 +5379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="952200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5400,9 +5400,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5416,7 +5416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1143000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5437,9 +5437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5453,7 +5453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1333440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5474,9 +5474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5490,7 +5490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1523880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5511,9 +5511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5527,7 +5527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1714320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5548,9 +5548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5564,7 +5564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1904760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5585,9 +5585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5601,7 +5601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2095200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5622,9 +5622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5638,7 +5638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2286000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5659,9 +5659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5675,7 +5675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2476440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5696,9 +5696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5712,7 +5712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2666880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5733,9 +5733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5749,7 +5749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2857320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5770,9 +5770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5786,7 +5786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3047760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5807,9 +5807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5823,7 +5823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3238200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5844,9 +5844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5860,7 +5860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3429000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5881,9 +5881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5897,7 +5897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3619440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5918,9 +5918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5934,7 +5934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3809880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5955,9 +5955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5971,7 +5971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4000320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5992,9 +5992,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6008,7 +6008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4190760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6029,9 +6029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6045,7 +6045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4381200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6066,9 +6066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6082,7 +6082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4572000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6103,9 +6103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6119,7 +6119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4762440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6140,9 +6140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6156,7 +6156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4952880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6177,9 +6177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6193,7 +6193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5143320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6214,9 +6214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6230,7 +6230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5333760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6251,9 +6251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6267,7 +6267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5524200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6288,9 +6288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6304,7 +6304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5715000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6325,9 +6325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6341,7 +6341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5905440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6362,9 +6362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6378,7 +6378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6095880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6399,9 +6399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6415,7 +6415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6286320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6436,9 +6436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6452,7 +6452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6476760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6473,9 +6473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6489,7 +6489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6667200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6510,9 +6510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6526,7 +6526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6858000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6547,9 +6547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6563,7 +6563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7048440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6584,9 +6584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6600,7 +6600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7238880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6621,9 +6621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6637,7 +6637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7429320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6658,9 +6658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6674,7 +6674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7619760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6695,9 +6695,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6711,7 +6711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7810200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6732,9 +6732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6748,7 +6748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8001000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6769,9 +6769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6785,7 +6785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8191440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6806,9 +6806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6822,7 +6822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8381880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6843,9 +6843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6859,7 +6859,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8572320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6880,9 +6880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6896,7 +6896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8762760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6917,9 +6917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6933,7 +6933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8953200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6954,9 +6954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6970,7 +6970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9144000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6991,9 +6991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7007,7 +7007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9334440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7028,9 +7028,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7044,7 +7044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9524880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7065,9 +7065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7081,7 +7081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9715320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7102,9 +7102,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7118,7 +7118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="9905760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7139,9 +7139,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>293040</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7155,7 +7155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10096200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7176,9 +7176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7192,7 +7192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10287000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7213,9 +7213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7229,7 +7229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10477440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7250,9 +7250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7266,7 +7266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10667880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7287,9 +7287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7303,7 +7303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10858320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7324,9 +7324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7340,7 +7340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11048760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7361,9 +7361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7377,7 +7377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11239200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7398,9 +7398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7414,7 +7414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11430000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7435,9 +7435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7451,7 +7451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11620440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7472,9 +7472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7488,7 +7488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11810880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7509,9 +7509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7525,7 +7525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12001320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7546,9 +7546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7562,7 +7562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12191760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7583,9 +7583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7599,7 +7599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12382200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7620,9 +7620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7636,7 +7636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12573000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7657,9 +7657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7673,7 +7673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12763440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7694,9 +7694,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7710,7 +7710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12953880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7731,9 +7731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7747,7 +7747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13144320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7768,9 +7768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7784,7 +7784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13334760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7805,9 +7805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7821,7 +7821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13525200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7842,9 +7842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7858,7 +7858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13716000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7879,9 +7879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7895,7 +7895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13906440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7916,9 +7916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7932,7 +7932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14096880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7953,9 +7953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7969,7 +7969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14287320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7990,9 +7990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8006,7 +8006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14477760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8027,9 +8027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8043,7 +8043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14668200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8064,9 +8064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8080,7 +8080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14859000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8101,9 +8101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8117,7 +8117,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15049440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8138,9 +8138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8154,7 +8154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15239880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8175,9 +8175,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8191,7 +8191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15430320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8212,9 +8212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8228,7 +8228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15620760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8249,9 +8249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8265,7 +8265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15811200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8286,9 +8286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8302,7 +8302,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16002000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8323,9 +8323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8339,7 +8339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16192440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8360,9 +8360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8376,7 +8376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16382880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8397,9 +8397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8413,7 +8413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16573320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8434,9 +8434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8450,7 +8450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16763760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8471,9 +8471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8487,7 +8487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16954200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8508,9 +8508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8524,7 +8524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17145000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8545,9 +8545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8561,7 +8561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17335440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8582,9 +8582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8598,7 +8598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17525880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8619,9 +8619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8635,7 +8635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17716320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8656,9 +8656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8672,7 +8672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17906760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8693,9 +8693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8709,7 +8709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18097200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8730,9 +8730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8746,7 +8746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18288000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8767,9 +8767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8783,7 +8783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18478440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8804,9 +8804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8820,7 +8820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18668880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8841,9 +8841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8857,7 +8857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="18859320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8878,9 +8878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8894,7 +8894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19049760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8915,9 +8915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8931,7 +8931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19240200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8952,9 +8952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8968,7 +8968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19431000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8989,9 +8989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9005,7 +9005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19621440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9026,9 +9026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9042,7 +9042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19811880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9063,9 +9063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9079,7 +9079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20002320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9100,9 +9100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9116,7 +9116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20192760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9137,9 +9137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9153,7 +9153,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20383200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9174,9 +9174,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9190,7 +9190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20574000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9211,9 +9211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9227,7 +9227,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20764440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9248,9 +9248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9264,7 +9264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20954880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9285,9 +9285,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9301,7 +9301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21145320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9322,9 +9322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9338,7 +9338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21335760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9359,9 +9359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9375,7 +9375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21526200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9396,9 +9396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9412,7 +9412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21717000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9433,9 +9433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9449,7 +9449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="21907440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9470,9 +9470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9486,7 +9486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22097880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9507,9 +9507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9523,7 +9523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22288320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9544,9 +9544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9560,7 +9560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22478760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9581,9 +9581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9597,7 +9597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22669200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9618,9 +9618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9634,7 +9634,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22860000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9655,9 +9655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9671,7 +9671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23050440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9692,9 +9692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9708,7 +9708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23240880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9729,9 +9729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9745,7 +9745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23431320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9766,9 +9766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9782,7 +9782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23621760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9803,9 +9803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9819,7 +9819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23812200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9840,9 +9840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9856,7 +9856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24003000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9877,9 +9877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9893,7 +9893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24193440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9914,9 +9914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9930,7 +9930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24383880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9951,9 +9951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9967,7 +9967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24574320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9988,9 +9988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10004,7 +10004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24764760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10025,9 +10025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10041,7 +10041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="24955200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10062,9 +10062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10078,7 +10078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="25146000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10099,9 +10099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10115,7 +10115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="25336440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10136,9 +10136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10152,7 +10152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="25526880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10173,9 +10173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10189,7 +10189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="25717320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10210,9 +10210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10226,7 +10226,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="25907760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10247,9 +10247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10263,7 +10263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26098200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10284,9 +10284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10300,7 +10300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26289000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10321,9 +10321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10337,7 +10337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26479440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10358,9 +10358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10374,7 +10374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26669880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10395,9 +10395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10411,7 +10411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26860320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10432,9 +10432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10448,7 +10448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27050760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10469,9 +10469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10485,7 +10485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27241200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10506,9 +10506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10522,7 +10522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27432000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10543,9 +10543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10559,7 +10559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27622440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10580,9 +10580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10596,7 +10596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="27812880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10617,9 +10617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10633,7 +10633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28003320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10654,9 +10654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10670,7 +10670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28193760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10691,9 +10691,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10707,7 +10707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28384200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10728,9 +10728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10744,7 +10744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28575000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10765,9 +10765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10781,7 +10781,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28765440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10802,9 +10802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10818,7 +10818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="28955880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10839,9 +10839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10855,7 +10855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29146320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10876,9 +10876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10892,7 +10892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29336760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10913,9 +10913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10929,7 +10929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29527200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10950,9 +10950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10966,7 +10966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29718000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10987,9 +10987,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11003,7 +11003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29908440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11024,9 +11024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11040,7 +11040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="30098880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11061,9 +11061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11077,7 +11077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="30289320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11098,9 +11098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11114,7 +11114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="30479760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11135,9 +11135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11151,7 +11151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="30670200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11172,9 +11172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11188,7 +11188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="30861000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11209,9 +11209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11225,7 +11225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="31051440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11246,9 +11246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11262,7 +11262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="31241880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11283,9 +11283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11299,7 +11299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="31432320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11320,9 +11320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11336,7 +11336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="31622760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11357,9 +11357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11373,7 +11373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="31813200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11394,9 +11394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11410,7 +11410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32004000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11431,9 +11431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11447,7 +11447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32194440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11468,9 +11468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11484,7 +11484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32384880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11505,9 +11505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11521,7 +11521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32575320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11542,9 +11542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11558,7 +11558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32765760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11579,9 +11579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11595,7 +11595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="32956200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11616,9 +11616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11632,7 +11632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="33147000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11653,9 +11653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11669,7 +11669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="33337440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11690,9 +11690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11706,7 +11706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="33527880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11727,9 +11727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11743,7 +11743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="33718320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11764,9 +11764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11780,7 +11780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="33908760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11801,9 +11801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11817,7 +11817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34099200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11838,9 +11838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11854,7 +11854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34290000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11875,9 +11875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11891,7 +11891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34480440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11912,9 +11912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11928,7 +11928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34670880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11949,9 +11949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11965,7 +11965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34861320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11986,9 +11986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12002,7 +12002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35051760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12023,9 +12023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12039,7 +12039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35242200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12060,9 +12060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12076,7 +12076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35433000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12097,9 +12097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12113,7 +12113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35623440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12134,9 +12134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12150,7 +12150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35813880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12171,9 +12171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12187,7 +12187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36004320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12208,9 +12208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12224,7 +12224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36194760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12245,9 +12245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>293040</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12261,7 +12261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36385200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12282,9 +12282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12298,7 +12298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36576000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12319,9 +12319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12335,7 +12335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36766440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12356,9 +12356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12372,7 +12372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36956880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12393,9 +12393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12409,7 +12409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="37147320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12430,9 +12430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12446,7 +12446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="37337760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12467,9 +12467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12483,7 +12483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="37528200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12504,9 +12504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>216</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12520,7 +12520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="37719000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12541,9 +12541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12557,7 +12557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="37909440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12578,9 +12578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>218</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12594,7 +12594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38099880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12615,9 +12615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12631,7 +12631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38290320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12652,9 +12652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12668,7 +12668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38480760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12689,9 +12689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12705,7 +12705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38671200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12726,9 +12726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12742,7 +12742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="38862000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12763,9 +12763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>224</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12779,7 +12779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="39052440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12800,9 +12800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>225</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12816,7 +12816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="39242880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12837,9 +12837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12853,7 +12853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="39433320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12874,9 +12874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12890,7 +12890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="39623760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12911,9 +12911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12927,7 +12927,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="39814200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12948,9 +12948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12964,7 +12964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40005000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12985,9 +12985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13001,7 +13001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40195440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13022,9 +13022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13038,7 +13038,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40385880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13059,9 +13059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13075,7 +13075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40576320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13096,9 +13096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13112,7 +13112,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40766760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13133,9 +13133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13149,7 +13149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="40957200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13170,9 +13170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13186,7 +13186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="41148000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13207,9 +13207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>237</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13223,7 +13223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="41338440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13244,9 +13244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13260,7 +13260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="41528880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13281,9 +13281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13297,7 +13297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="41719320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13318,9 +13318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13334,7 +13334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="41909760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13355,9 +13355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>241</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13371,7 +13371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="42100200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13392,9 +13392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>242</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13408,7 +13408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="42291000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13429,9 +13429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>243</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13445,7 +13445,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="42481440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13466,9 +13466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>244</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13482,7 +13482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="42671880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13503,9 +13503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>245</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13519,7 +13519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="42862320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13540,9 +13540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13556,7 +13556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43052760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13577,9 +13577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13593,7 +13593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43243200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13614,9 +13614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>249</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13630,7 +13630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43434000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13651,9 +13651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>250</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13667,7 +13667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43624440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13688,9 +13688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>251</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13704,7 +13704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43814880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13725,9 +13725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>252</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13741,7 +13741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44005320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13762,9 +13762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>253</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13778,7 +13778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44195760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13799,9 +13799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>254</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13815,7 +13815,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44386200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13836,9 +13836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13852,7 +13852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44577000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13873,9 +13873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13889,7 +13889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44767440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13910,9 +13910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>257</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13926,7 +13926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="44957880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13947,9 +13947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>258</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13963,7 +13963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="45148320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13984,9 +13984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>260</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14000,7 +14000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="45338760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14021,9 +14021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>261</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14037,7 +14037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="45529200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14058,9 +14058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>262</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14074,7 +14074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="45720000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14095,9 +14095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>263</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14111,7 +14111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="45910440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14132,9 +14132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>264</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14148,7 +14148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46100880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14169,9 +14169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>265</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14185,7 +14185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46291320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14206,9 +14206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>266</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14222,7 +14222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46481760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14243,9 +14243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>267</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14259,7 +14259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46672200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14280,9 +14280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>268</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14296,7 +14296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46863000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14317,9 +14317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14333,7 +14333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="47053440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14354,9 +14354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>270</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14370,7 +14370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="47243880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14391,9 +14391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>272</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14407,7 +14407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="47434320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14428,9 +14428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>273</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14444,7 +14444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="47624760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14465,9 +14465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>274</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14481,7 +14481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="47815200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14502,9 +14502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>275</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14518,7 +14518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48006000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14539,9 +14539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>276</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14555,7 +14555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48196440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14576,9 +14576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14592,7 +14592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48386880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14613,9 +14613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14629,7 +14629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48577320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14650,9 +14650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>279</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14666,7 +14666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48767760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14687,9 +14687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>280</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14703,7 +14703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48958200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14724,9 +14724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>281</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14740,7 +14740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="49149000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14761,9 +14761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>282</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14777,7 +14777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="49339440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14798,9 +14798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>283</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14814,7 +14814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="49529880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14835,9 +14835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>285</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14851,7 +14851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="49720320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14872,9 +14872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>286</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14888,7 +14888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="49910760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14909,9 +14909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>287</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14925,7 +14925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="50101200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14946,9 +14946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>288</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14962,7 +14962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="50292000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14983,9 +14983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14999,7 +14999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="50482440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15020,9 +15020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>290</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15036,7 +15036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="50672880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15057,9 +15057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>291</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15073,7 +15073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="50863320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15094,9 +15094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>292</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15110,7 +15110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51053760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15131,9 +15131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15147,7 +15147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51244200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15168,9 +15168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>294</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15184,7 +15184,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51435000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15205,9 +15205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>295</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15221,7 +15221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51625440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15242,9 +15242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>297</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15258,7 +15258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51815880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15279,9 +15279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15295,7 +15295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52006320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15316,9 +15316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>299</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15332,7 +15332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52196760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15353,9 +15353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>300</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15369,7 +15369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52387200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15390,9 +15390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>301</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15406,7 +15406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52578000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15427,9 +15427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>302</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15443,7 +15443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52768440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15464,9 +15464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>303</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15480,7 +15480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="52958880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15501,9 +15501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>304</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15517,7 +15517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53149320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15538,9 +15538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15554,7 +15554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53339760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15575,9 +15575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>306</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15591,7 +15591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53530200"/>
-          <a:ext cx="293400" cy="244800"/>
+          <a:ext cx="293040" cy="244440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15612,9 +15612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15628,7 +15628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53721000"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15649,9 +15649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15665,7 +15665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53911440"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15686,9 +15686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>310</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15702,7 +15702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="54101880"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15723,9 +15723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>311</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15739,7 +15739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="54292320"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15760,9 +15760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>312</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15776,7 +15776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="54482760"/>
-          <a:ext cx="293400" cy="244440"/>
+          <a:ext cx="293040" cy="244080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15798,22 +15798,23 @@
   </sheetPr>
   <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="78.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.0080971659919"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.3117408906883"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
